--- a/template/IDS_TEMPLATE.xlsx
+++ b/template/IDS_TEMPLATE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/Projetos/PROJETOS PYTHON/ids_converter/sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosdias\Documents\PROJETOS\ids_converter\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{5A472DE1-A9BC-486C-B14E-B6A0C3D03024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6781350D-3B97-4AA3-A0D3-E20F92BAF787}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16DDFC8-0E23-421E-83C5-8F8C0D04B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>entity</t>
   </si>
   <si>
-    <t>predefinedType</t>
-  </si>
-  <si>
     <t>specification description</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>My_spec_01</t>
+  </si>
+  <si>
+    <t>predefined type</t>
   </si>
 </sst>
 </file>
@@ -301,10 +301,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,65 +604,65 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="19.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="29.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="19.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.81640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -675,33 +671,33 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -710,60 +706,60 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -799,42 +795,42 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/template/IDS_TEMPLATE.xlsx
+++ b/template/IDS_TEMPLATE.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosdias\Documents\PROJETOS\ids_converter\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c4rlo\OneDrive\Documentos\BIM\PROJETOS PYTHON\ids_converter\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16DDFC8-0E23-421E-83C5-8F8C0D04B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C810FD4F-27C8-4356-93FE-17EE887E4A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="SPECIFICATIONS" sheetId="5" r:id="rId1"/>
+    <sheet name="APPLICABILITY" sheetId="3" r:id="rId2"/>
+    <sheet name="REQUIREMENTS" sheetId="4" r:id="rId3"/>
+    <sheet name="Support" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">APPLICABILITY!$A$3:$Q$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REQUIREMENTS!$A$3:$K$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPECIFICATIONS!$A$3:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,22 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
-  <si>
-    <t>IFCWALL</t>
-  </si>
-  <si>
-    <t>IfcAreaMeasure</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
-    <t>specification name</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="179">
   <si>
     <t>specification description</t>
   </si>
@@ -66,21 +55,12 @@
     <t>property name</t>
   </si>
   <si>
-    <t>property type</t>
-  </si>
-  <si>
     <t>optionality</t>
   </si>
   <si>
     <t>property value</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Base restriction</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -93,65 +73,521 @@
     <t>restriction base</t>
   </si>
   <si>
-    <t>have restriction</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>prohibited</t>
-  </si>
-  <si>
-    <t>Pset_WallCommon</t>
-  </si>
-  <si>
-    <t>IFCSLAB</t>
-  </si>
-  <si>
-    <t>FLOOR</t>
-  </si>
-  <si>
-    <t>Slabs needs area</t>
-  </si>
-  <si>
-    <t>GrossArea</t>
-  </si>
-  <si>
-    <t>Pset_SlabCommon</t>
-  </si>
-  <si>
-    <t>[0-9]</t>
-  </si>
-  <si>
-    <t>LoadBearing</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>IsExternal</t>
-  </si>
-  <si>
-    <t>IfcBoolean</t>
-  </si>
-  <si>
-    <t>Wall needs this properties</t>
-  </si>
-  <si>
-    <t>My_spec_03</t>
-  </si>
-  <si>
-    <t>My_spec_01</t>
-  </si>
-  <si>
     <t>predefined type</t>
+  </si>
+  <si>
+    <t>Specification 1</t>
+  </si>
+  <si>
+    <t>Specification 2</t>
+  </si>
+  <si>
+    <t>Specification 3</t>
+  </si>
+  <si>
+    <t>classification reference</t>
+  </si>
+  <si>
+    <t>classification system</t>
+  </si>
+  <si>
+    <t>Specification 4</t>
+  </si>
+  <si>
+    <t>data type</t>
+  </si>
+  <si>
+    <t>APPLICABILITY</t>
+  </si>
+  <si>
+    <t>REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>PROPERTY</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>ENTITY</t>
+  </si>
+  <si>
+    <t>SPECIFICATIONS</t>
+  </si>
+  <si>
+    <t>IFCLABEL</t>
+  </si>
+  <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>PROHIBITED</t>
+  </si>
+  <si>
+    <t>IFCABSORBEDDOSEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCACCELERATIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCAMOUNTOFSUBSTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCANGULARVELOCITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCARCINDEX</t>
+  </si>
+  <si>
+    <t>IFCAREADENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCAREAMEASURE</t>
+  </si>
+  <si>
+    <t>IFCBINARY</t>
+  </si>
+  <si>
+    <t>IFCBOOLEAN</t>
+  </si>
+  <si>
+    <t>IFCBOXALIGNMENT</t>
+  </si>
+  <si>
+    <t>IFCCARDINALPOINTREFERENCE</t>
+  </si>
+  <si>
+    <t>IFCCOMPLEXNUMBER</t>
+  </si>
+  <si>
+    <t>IFCCOMPOUNDPLANEANGLEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCCONTEXTDEPENDENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCCOUNTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCCURVATUREMEASURE</t>
+  </si>
+  <si>
+    <t>IFCDATE</t>
+  </si>
+  <si>
+    <t>IFCDATETIME</t>
+  </si>
+  <si>
+    <t>IFCDAYINMONTHNUMBER</t>
+  </si>
+  <si>
+    <t>IFCDAYINWEEKNUMBER</t>
+  </si>
+  <si>
+    <t>IFCDESCRIPTIVEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCDIMENSIONCOUNT</t>
+  </si>
+  <si>
+    <t>IFCDOSEEQUIVALENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCDURATION</t>
+  </si>
+  <si>
+    <t>IFCDYNAMICVISCOSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICCAPACITANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICCHARGEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICCONDUCTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICCURRENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICRESISTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICVOLTAGEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCENERGYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCFONTSTYLE</t>
+  </si>
+  <si>
+    <t>IFCFONTVARIANT</t>
+  </si>
+  <si>
+    <t>IFCFONTWEIGHT</t>
+  </si>
+  <si>
+    <t>IFCFORCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCFREQUENCYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCGLOBALLYUNIQUEID</t>
+  </si>
+  <si>
+    <t>IFCHEATFLUXDENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCHEATINGVALUEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCIDENTIFIER</t>
+  </si>
+  <si>
+    <t>IFCILLUMINANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCINDUCTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCINTEGER</t>
+  </si>
+  <si>
+    <t>IFCINTEGERCOUNTRATEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCIONCONCENTRATIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCISOTHERMALMOISTURECAPACITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCKINEMATICVISCOSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLANGUAGEID</t>
+  </si>
+  <si>
+    <t>IFCLENGTHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEARFORCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEARMOMENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEARSTIFFNESSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEARVELOCITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEINDEX</t>
+  </si>
+  <si>
+    <t>IFCLOGICAL</t>
+  </si>
+  <si>
+    <t>IFCLUMINOUSFLUXMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLUMINOUSINTENSITYDISTRIBUTIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLUMINOUSINTENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMAGNETICFLUXDENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMAGNETICFLUXMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMASSDENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMASSFLOWRATEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMASSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMASSPERLENGTHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMODULUSOFELASTICITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMODULUSOFLINEARSUBGRADEREACTIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMODULUSOFROTATIONALSUBGRADEREACTIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMODULUSOFSUBGRADEREACTIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMOISTUREDIFFUSIVITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMOLECULARWEIGHTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMOMENTOFINERTIAMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMONETARYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMONTHINYEARNUMBER</t>
+  </si>
+  <si>
+    <t>IFCNONNEGATIVELENGTHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCNORMALISEDRATIOMEASURE</t>
+  </si>
+  <si>
+    <t>IFCNUMERICMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPARAMETERVALUE</t>
+  </si>
+  <si>
+    <t>IFCPHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPLANARFORCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPLANEANGLEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPOSITIVEINTEGER</t>
+  </si>
+  <si>
+    <t>IFCPOSITIVELENGTHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPOSITIVEPLANEANGLEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPOSITIVERATIOMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPOWERMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPRESENTABLETEXT</t>
+  </si>
+  <si>
+    <t>IFCPRESSUREMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPROPERTYSETDEFINITIONSET</t>
+  </si>
+  <si>
+    <t>IFCRADIOACTIVITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCRATIOMEASURE</t>
+  </si>
+  <si>
+    <t>IFCREAL</t>
+  </si>
+  <si>
+    <t>IFCROTATIONALFREQUENCYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCROTATIONALMASSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCROTATIONALSTIFFNESSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSECTIONALAREAINTEGRALMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSECTIONMODULUSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSHEARMODULUSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOLIDANGLEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOUNDPOWERLEVELMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOUNDPOWERMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOUNDPRESSURELEVELMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOUNDPRESSUREMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSPECIFICHEATCAPACITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSPECULAREXPONENT</t>
+  </si>
+  <si>
+    <t>IFCSPECULARROUGHNESS</t>
+  </si>
+  <si>
+    <t>IFCTEMPERATUREGRADIENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTEMPERATURERATEOFCHANGEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTEXT</t>
+  </si>
+  <si>
+    <t>IFCTEXTALIGNMENT</t>
+  </si>
+  <si>
+    <t>IFCTEXTDECORATION</t>
+  </si>
+  <si>
+    <t>IFCTEXTFONTNAME</t>
+  </si>
+  <si>
+    <t>IFCTEXTTRANSFORMATION</t>
+  </si>
+  <si>
+    <t>IFCTHERMALADMITTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMALCONDUCTIVITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMALEXPANSIONCOEFFICIENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMALRESISTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMALTRANSMITTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMODYNAMICTEMPERATUREMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTIME</t>
+  </si>
+  <si>
+    <t>IFCTIMEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTIMESTAMP</t>
+  </si>
+  <si>
+    <t>IFCTORQUEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCURIREFERENCE</t>
+  </si>
+  <si>
+    <t>IFCVAPORPERMEABILITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCVOLUMEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCVOLUMETRICFLOWRATEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCWARPINGCONSTANTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCWARPINGMOMENTMEASURE</t>
+  </si>
+  <si>
+    <t>PARTS</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>enumeration</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>minExclusive/maxExclusive</t>
+  </si>
+  <si>
+    <t>minLength/maxLength</t>
+  </si>
+  <si>
+    <t>part of entity</t>
+  </si>
+  <si>
+    <t>specification optionality</t>
+  </si>
+  <si>
+    <t>material name</t>
+  </si>
+  <si>
+    <t>entity name</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>attribute name</t>
+  </si>
+  <si>
+    <t>attribute value</t>
+  </si>
+  <si>
+    <t>COMMOM</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>specification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,31 +617,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -231,8 +677,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -255,11 +773,268 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,27 +1042,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,187 +1557,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1E1C6B-A6DD-44E6-BB57-8CDA388BB456}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239F0DE-95D4-4888-9DF4-42CFE324B097}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="19.54296875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.81640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>11</v>
+    </row>
+    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C506C5F-D73E-4C1F-BABD-5E861DAEA0FC}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AFD7074-7FCC-49FF-B1EB-71546DAA3FF6}">
           <x14:formula1>
-            <xm:f>Planilha2!$B$2:$B$4</xm:f>
+            <xm:f>Support!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28B9EF08-CD32-4757-929E-881F6345846E}">
-          <x14:formula1>
-            <xm:f>Planilha2!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K4</xm:sqref>
+          <xm:sqref>C4:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -788,49 +1654,1318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52307A5-6B78-4977-A948-3789E427EB48}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13:U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+    </row>
+    <row r="2" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="57"/>
+      <c r="O2" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="68"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="33"/>
+    </row>
+    <row r="5" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="33"/>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="33"/>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="12" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7822AAEF-71D3-419C-9BE2-22B30B21E4A2}">
+          <x14:formula1>
+            <xm:f>Support!$D$2:$D$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>P4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A61A6232-7D62-44E2-84D7-BDF661C252ED}">
+          <x14:formula1>
+            <xm:f>Support!$B$2:$B$132</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD9FAC6B-EF73-41FF-BB2D-07D3923A66AD}">
+          <x14:formula1>
+            <xm:f>Support!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>P5:P7 O4:O7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{067EE399-9F82-4FF7-AFA2-FA54A80971BE}">
+          <x14:formula1>
+            <xm:f>Support!$B$3:$B$132</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5:I7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4419FCA-FF54-4165-AEE3-5F23BCAA01F1}">
+          <x14:formula1>
+            <xm:f>Support!$B$3:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q4:Q7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12FDF058-3226-49FB-BC3A-83AD104ECAB0}">
+          <x14:formula1>
+            <xm:f>SPECIFICATIONS!$A$4:$A$205</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6466653-3344-42ED-8F52-03DB8ECF3CBD}">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.5703125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+    </row>
+    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="77"/>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="28"/>
+    </row>
+    <row r="5" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="28"/>
+    </row>
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="28"/>
+    </row>
+    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="28"/>
+    </row>
+    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE46DD0F-4288-41F1-A65D-9095136AFC0B}">
+          <x14:formula1>
+            <xm:f>Support!$D$2:$D$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B914B775-2671-41F1-ABA0-6A87CFCEF9A7}">
+          <x14:formula1>
+            <xm:f>Support!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>O4:O7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3881E181-62A1-43AA-B81B-6DAE85168EB4}">
+          <x14:formula1>
+            <xm:f>Support!$B$2:$B$132</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F2CA6F0-7322-41A5-82A6-1F2F1A02811C}">
+          <x14:formula1>
+            <xm:f>Support!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q5:Q7 P4:P7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F305484-B106-4BEF-A2DE-A98077936284}">
+          <x14:formula1>
+            <xm:f>Support!$B$3:$B$132</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5:I7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2211D6DD-7995-42C7-A105-7F3DAF460026}">
+          <x14:formula1>
+            <xm:f>Support!$B$3:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>R4:R7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DA6F1FB-E4C6-4EBB-A5F8-947E560F29A6}">
+          <x14:formula1>
+            <xm:f>SPECIFICATIONS!$A$4:$A$190</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6BC952-1F10-4032-8D15-0975CA7BBB4C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/template/IDS_TEMPLATE.xlsx
+++ b/template/IDS_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/BIM/PROJETOS PYTHON/ids_converter/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C810FD4F-27C8-4356-93FE-17EE887E4A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA31AE9-EB8E-4092-8D3F-2E45F825ED51}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C810FD4F-27C8-4356-93FE-17EE887E4A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3138AECD-C6F1-446F-8BE6-D86E1C6E8EDF}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECIFICATIONS" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Support" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">APPLICABILITY!$A$3:$Q$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">APPLICABILITY!$A$3:$O$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REQUIREMENTS!$A$3:$K$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPECIFICATIONS!$A$3:$C$6</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
   <si>
     <t>specification description</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>attribute value</t>
-  </si>
-  <si>
-    <t>COMMOM</t>
   </si>
   <si>
     <t>URI</t>
@@ -1034,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1072,9 +1069,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,15 +1119,9 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,9 +1137,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,6 +1154,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1261,10 +1249,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,75 +1550,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239F0DE-95D4-4888-9DF4-42CFE324B097}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1661,240 +1645,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52307A5-6B78-4977-A948-3789E427EB48}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="29.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="57"/>
-    </row>
-    <row r="2" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="58" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="54"/>
+    </row>
+    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="60" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="63" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="32"/>
-    </row>
-    <row r="5" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="29"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="32"/>
-    </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="29"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="29"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="12" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="29"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1902,24 +1865,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7822AAEF-71D3-419C-9BE2-22B30B21E4A2}">
-          <x14:formula1>
-            <xm:f>Support!$D$2:$D$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>P4</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A61A6232-7D62-44E2-84D7-BDF661C252ED}">
           <x14:formula1>
             <xm:f>Support!$B$2:$B$132</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD9FAC6B-EF73-41FF-BB2D-07D3923A66AD}">
-          <x14:formula1>
-            <xm:f>Support!$C$2:$C$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>P5:P7 O4:O7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{067EE399-9F82-4FF7-AFA2-FA54A80971BE}">
           <x14:formula1>
@@ -1931,7 +1882,7 @@
           <x14:formula1>
             <xm:f>Support!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q4:Q7</xm:sqref>
+          <xm:sqref>O4:O7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12FDF058-3226-49FB-BC3A-83AD104ECAB0}">
           <x14:formula1>
@@ -1947,248 +1898,228 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6466653-3344-42ED-8F52-03DB8ECF3CBD}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.5703125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-    </row>
-    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="69" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+    </row>
+    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="74" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="66" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="51" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69" t="s">
+      <c r="N2" s="65"/>
+      <c r="O2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="71"/>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="68"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="27"/>
-    </row>
-    <row r="5" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="29"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="29"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="29"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="29"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D2:E2"/>
@@ -2198,13 +2129,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE46DD0F-4288-41F1-A65D-9095136AFC0B}">
-          <x14:formula1>
-            <xm:f>Support!$D$2:$D$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q4</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B914B775-2671-41F1-ABA0-6A87CFCEF9A7}">
           <x14:formula1>
             <xm:f>Support!$A$2:$A$4</xm:f>
@@ -2217,12 +2142,6 @@
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F2CA6F0-7322-41A5-82A6-1F2F1A02811C}">
-          <x14:formula1>
-            <xm:f>Support!$C$2:$C$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q5:Q7 P4:P7</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F305484-B106-4BEF-A2DE-A98077936284}">
           <x14:formula1>
             <xm:f>Support!$B$3:$B$132</xm:f>
@@ -2233,7 +2152,7 @@
           <x14:formula1>
             <xm:f>Support!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>R4:R7</xm:sqref>
+          <xm:sqref>P4:P7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DA6F1FB-E4C6-4EBB-A5F8-947E560F29A6}">
           <x14:formula1>
@@ -2255,16 +2174,16 @@
       <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2278,21 +2197,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
       <c r="D2" s="18"/>
-      <c r="F2" s="52"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>49</v>
+      <c r="B3" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>5</v>
@@ -2300,14 +2219,14 @@
       <c r="D3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>50</v>
+      <c r="B4" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>7</v>
@@ -2315,11 +2234,11 @@
       <c r="D4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
-        <v>51</v>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
@@ -2327,11 +2246,11 @@
       <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
-        <v>52</v>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>30</v>
@@ -2339,11 +2258,11 @@
       <c r="D6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
-        <v>53</v>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>31</v>
@@ -2351,758 +2270,758 @@
       <c r="D7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
-        <v>54</v>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="52"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="52" t="s">
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="52"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="52"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="52"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="52"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="52" t="s">
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="52"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="52"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="52"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="52" t="s">
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="52"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="52" t="s">
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="52" t="s">
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="52" t="s">
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="52" t="s">
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="52" t="s">
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="52" t="s">
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="52"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="52" t="s">
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
+      <c r="F27" s="48"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="52" t="s">
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="52" t="s">
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="52" t="s">
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="52"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="52" t="s">
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="52" t="s">
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="52" t="s">
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="52" t="s">
+      <c r="F34" s="48"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="52" t="s">
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="52"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
+      <c r="F36" s="48"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="52" t="s">
+      <c r="F37" s="48"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="52" t="s">
+      <c r="F38" s="48"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="52" t="s">
+      <c r="F39" s="48"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="F40" s="48"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="52"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="52" t="s">
+      <c r="F41" s="48"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="52"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="52" t="s">
+      <c r="F42" s="48"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="52"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="52" t="s">
+      <c r="F43" s="48"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="52" t="s">
+      <c r="F44" s="48"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="52" t="s">
+      <c r="F45" s="48"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="52" t="s">
+      <c r="F46" s="48"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="52" t="s">
+      <c r="F47" s="48"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="52"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="52" t="s">
+      <c r="F48" s="48"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="52" t="s">
+      <c r="F49" s="48"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="52" t="s">
+      <c r="F50" s="48"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="52" t="s">
+      <c r="F51" s="48"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="52" t="s">
+      <c r="F52" s="48"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="52"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="52" t="s">
+      <c r="F53" s="48"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="52" t="s">
+      <c r="F54" s="48"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="52" t="s">
+      <c r="F55" s="48"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="52" t="s">
+      <c r="F56" s="48"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="52" t="s">
+      <c r="F57" s="48"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="52"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="52" t="s">
+      <c r="F58" s="48"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="52" t="s">
+      <c r="F59" s="48"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="52" t="s">
+      <c r="F60" s="48"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="52" t="s">
+      <c r="F61" s="48"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="52" t="s">
+      <c r="F62" s="48"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F62" s="52"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="52" t="s">
+      <c r="F63" s="48"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="52" t="s">
+      <c r="F64" s="48"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="52" t="s">
+      <c r="F65" s="48"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="52" t="s">
+      <c r="F66" s="48"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="52" t="s">
+      <c r="F67" s="48"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F67" s="52"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="52" t="s">
+      <c r="F68" s="48"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="52" t="s">
+      <c r="F69" s="48"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="52" t="s">
+      <c r="F70" s="48"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="52" t="s">
+      <c r="F71" s="48"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="52" t="s">
+      <c r="F72" s="48"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="F72" s="52"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="52" t="s">
+      <c r="F73" s="48"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="52" t="s">
+      <c r="F74" s="48"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="52" t="s">
+      <c r="F75" s="48"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="52" t="s">
+      <c r="F76" s="48"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F76" s="52"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="52" t="s">
+      <c r="F77" s="48"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="F77" s="52"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="52" t="s">
+      <c r="F78" s="48"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="F78" s="52"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="52" t="s">
+      <c r="F79" s="48"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="F79" s="52"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="52" t="s">
+      <c r="F80" s="48"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F80" s="52"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="52" t="s">
+      <c r="F81" s="48"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="F81" s="52"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="52" t="s">
+      <c r="F82" s="48"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F82" s="52"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="52" t="s">
+      <c r="F83" s="48"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F83" s="52"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="52" t="s">
+      <c r="F84" s="48"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F84" s="52"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="52" t="s">
+      <c r="F85" s="48"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="F85" s="52"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="52" t="s">
+      <c r="F86" s="48"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="F86" s="52"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="52" t="s">
+      <c r="F87" s="48"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="F87" s="52"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="52" t="s">
+      <c r="F88" s="48"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="F88" s="52"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="52" t="s">
+      <c r="F89" s="48"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F89" s="52"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="52" t="s">
+      <c r="F90" s="48"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="F90" s="52"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="52" t="s">
+      <c r="F91" s="48"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="F91" s="52"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="52" t="s">
+      <c r="F92" s="48"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="F92" s="52"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="52" t="s">
+      <c r="F93" s="48"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F93" s="52"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="52" t="s">
+      <c r="F94" s="48"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F94" s="52"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="52" t="s">
+      <c r="F95" s="48"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F95" s="52"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="52" t="s">
+      <c r="F96" s="48"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="F96" s="52"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="52" t="s">
+      <c r="F97" s="48"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="F97" s="52"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="52" t="s">
+      <c r="F98" s="48"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F98" s="52"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="52" t="s">
+      <c r="F99" s="48"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="F99" s="52"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="52" t="s">
+      <c r="F100" s="48"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="F100" s="52"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="52" t="s">
+      <c r="F101" s="48"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F101" s="52"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="52" t="s">
+      <c r="F102" s="48"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="F102" s="52"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="52" t="s">
+      <c r="F103" s="48"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="F103" s="52"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="52" t="s">
+      <c r="F104" s="48"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="F104" s="52"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="52" t="s">
+      <c r="F105" s="48"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="F105" s="52"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="52" t="s">
+      <c r="F106" s="48"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="F106" s="52"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="52" t="s">
+      <c r="F107" s="48"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="F107" s="52"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="52" t="s">
+      <c r="F108" s="48"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="F108" s="52"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="52" t="s">
+      <c r="F109" s="48"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="F109" s="52"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="52" t="s">
+      <c r="F110" s="48"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="F110" s="52"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="52" t="s">
+      <c r="F111" s="48"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F111" s="52"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="52" t="s">
+      <c r="F112" s="48"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="F112" s="52"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="52" t="s">
+      <c r="F113" s="48"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F113" s="52"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="52" t="s">
+      <c r="F114" s="48"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="F114" s="52"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="52" t="s">
+      <c r="F115" s="48"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="F115" s="52"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="52" t="s">
+      <c r="F116" s="48"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="F116" s="52"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="52" t="s">
+      <c r="F117" s="48"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="F117" s="52"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="52" t="s">
+      <c r="F118" s="48"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="F118" s="52"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="52" t="s">
+      <c r="F119" s="48"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="F119" s="52"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="52" t="s">
+      <c r="F120" s="48"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="F120" s="52"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="52" t="s">
+      <c r="F121" s="48"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="F121" s="52"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="52" t="s">
+      <c r="F122" s="48"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F122" s="52"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="52" t="s">
+      <c r="F123" s="48"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="F123" s="52"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="52" t="s">
+      <c r="F124" s="48"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="F124" s="52"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="52" t="s">
+      <c r="F125" s="48"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F125" s="52"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="52" t="s">
+      <c r="F126" s="48"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F126" s="52"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="52" t="s">
+      <c r="F127" s="48"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="F127" s="52"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="52" t="s">
+      <c r="F128" s="48"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="F128" s="52"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="52" t="s">
+      <c r="F129" s="48"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F129" s="52"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="52" t="s">
+      <c r="F130" s="48"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="F130" s="52"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="52" t="s">
+      <c r="F131" s="48"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" s="48" t="s">
         <v>177</v>
-      </c>
-      <c r="F131" s="52"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="52" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/template/IDS_TEMPLATE.xlsx
+++ b/template/IDS_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/BIM/PROJETOS PYTHON/ids_converter/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{C810FD4F-27C8-4356-93FE-17EE887E4A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3138AECD-C6F1-446F-8BE6-D86E1C6E8EDF}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{C810FD4F-27C8-4356-93FE-17EE887E4A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B0CEA8-5595-4C50-9522-ABC16DF5D439}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECIFICATIONS" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="185">
   <si>
     <t>specification description</t>
   </si>
@@ -578,6 +578,27 @@
   </si>
   <si>
     <t>IfcWarpingMomentMeasure</t>
+  </si>
+  <si>
+    <t>describe your specification</t>
+  </si>
+  <si>
+    <t>/IFCSLAB, IFCCOLUMN/</t>
+  </si>
+  <si>
+    <t>/Pset_.*Common/</t>
+  </si>
+  <si>
+    <t>IsExternal</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>LoadBearing</t>
+  </si>
+  <si>
+    <t>/enumeration=TRUE, FALSE/</t>
   </si>
 </sst>
 </file>
@@ -1209,16 +1230,16 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,6 +1270,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1550,9 +1575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239F0DE-95D4-4888-9DF4-42CFE324B097}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1615,9 @@
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1599,7 +1626,9 @@
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
@@ -1608,7 +1637,9 @@
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="C6" s="20" t="s">
         <v>25</v>
       </c>
@@ -1617,7 +1648,9 @@
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="C7" s="20" t="s">
         <v>25</v>
       </c>
@@ -1649,14 +1682,14 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -1775,7 +1808,9 @@
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="C4" s="44"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
@@ -1900,9 +1935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6466653-3344-42ED-8F52-03DB8ECF3CBD}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1910,17 +1945,17 @@
     <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36.5546875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
@@ -1930,30 +1965,30 @@
       <c r="A1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
     </row>
     <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="73" t="s">
         <v>43</v>
       </c>
@@ -1978,7 +2013,7 @@
       <c r="O2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="68"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -2040,10 +2075,18 @@
       <c r="E4" s="28"/>
       <c r="F4" s="46"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="29"/>
+      <c r="H4" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="L4" s="24"/>
       <c r="M4" s="30"/>
       <c r="N4" s="29"/>
@@ -2052,7 +2095,7 @@
     </row>
     <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="44"/>
@@ -2060,10 +2103,18 @@
       <c r="E5" s="28"/>
       <c r="F5" s="46"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="29"/>
+      <c r="H5" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="L5" s="24"/>
       <c r="M5" s="30"/>
       <c r="N5" s="29"/>

--- a/template/IDS_TEMPLATE.xlsx
+++ b/template/IDS_TEMPLATE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/BIM/PROJETOS PYTHON/ids_converter/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/BIM/APRESENTAÇÕES/2023/BIM DAY/IDS WORKSHOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{C810FD4F-27C8-4356-93FE-17EE887E4A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B0CEA8-5595-4C50-9522-ABC16DF5D439}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{0E79F85B-5CE9-4D65-AC8A-40E0967A4564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59556FE4-AB42-49FA-964F-BCE058490047}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECIFICATIONS" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Support" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">APPLICABILITY!$A$3:$O$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REQUIREMENTS!$A$3:$K$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPECIFICATIONS!$A$3:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">APPLICABILITY!$A$3:$O$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REQUIREMENTS!$A$3:$K$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPECIFICATIONS!$A$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="225">
   <si>
     <t>specification description</t>
   </si>
@@ -76,24 +76,12 @@
     <t>predefined type</t>
   </si>
   <si>
-    <t>Specification 1</t>
-  </si>
-  <si>
-    <t>Specification 2</t>
-  </si>
-  <si>
-    <t>Specification 3</t>
-  </si>
-  <si>
     <t>classification reference</t>
   </si>
   <si>
     <t>classification system</t>
   </si>
   <si>
-    <t>Specification 4</t>
-  </si>
-  <si>
     <t>data type</t>
   </si>
   <si>
@@ -580,25 +568,157 @@
     <t>IfcWarpingMomentMeasure</t>
   </si>
   <si>
-    <t>describe your specification</t>
-  </si>
-  <si>
-    <t>/IFCSLAB, IFCCOLUMN/</t>
+    <t>IsExternal</t>
+  </si>
+  <si>
+    <t>Todas as paredes precisam ter a classificação de incêndio</t>
+  </si>
+  <si>
+    <t>IFCWALL</t>
+  </si>
+  <si>
+    <t>FireRating</t>
+  </si>
+  <si>
+    <t>Pset_WallCommon</t>
+  </si>
+  <si>
+    <t>Todas as paredes precisam ser identificadas como sendo paredes exteriores e paredes interiores</t>
+  </si>
+  <si>
+    <t>Todas as portas de alumínio devem ter a propriedade área com valores numéricos</t>
+  </si>
+  <si>
+    <t>Todas as portas com o nome revolving precisam ser giratórias</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IFCDOOR</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>/.*Revolving.*/</t>
+  </si>
+  <si>
+    <t>OperationType</t>
+  </si>
+  <si>
+    <t>REVOLVING</t>
+  </si>
+  <si>
+    <t>/[0-9]{2}/</t>
+  </si>
+  <si>
+    <t>Pset_DoorCommon</t>
+  </si>
+  <si>
+    <t>Firerating</t>
+  </si>
+  <si>
+    <t>Especificação 1</t>
+  </si>
+  <si>
+    <t>Especificação 2</t>
+  </si>
+  <si>
+    <t>Especificação 3</t>
+  </si>
+  <si>
+    <t>Especificação 4</t>
+  </si>
+  <si>
+    <t>Especificação 5</t>
+  </si>
+  <si>
+    <t>Especificação 6</t>
+  </si>
+  <si>
+    <t>Especificação 7</t>
+  </si>
+  <si>
+    <t>Especificação 8</t>
+  </si>
+  <si>
+    <t>Especificação 9</t>
+  </si>
+  <si>
+    <t>Especificação 10</t>
+  </si>
+  <si>
+    <t>Todos os mobiliários precisam estar inseridos em algum espaço</t>
+  </si>
+  <si>
+    <t>Todas os elementos precisam estar classificados conforme o sistema Uniformat</t>
+  </si>
+  <si>
+    <t>Todos os Ambientes devem ter o atributo Name com no mínimo 1 caracter e no máximo 4</t>
+  </si>
+  <si>
+    <t>Todos os dispositivos de iluminação não devem ter predefinedtype igual a NOTDEFINED</t>
+  </si>
+  <si>
+    <t>Todos os pisos de escada deverão fazer parte da composição de um lelemnto da classe escada</t>
+  </si>
+  <si>
+    <t>IFCSPACE</t>
+  </si>
+  <si>
+    <t>IFCLIGHTFIXTURE</t>
+  </si>
+  <si>
+    <t>IFCSTAIRFLIGHT</t>
+  </si>
+  <si>
+    <t>IFCRELAGGREGATES</t>
+  </si>
+  <si>
+    <t>IFCRELASSIGNTOGROUP</t>
+  </si>
+  <si>
+    <t>IFCRELCONTAINEDINSPATIALSTRUCTURE</t>
+  </si>
+  <si>
+    <t>Uniformat</t>
+  </si>
+  <si>
+    <t>/minLength=2, maxLength=4/</t>
+  </si>
+  <si>
+    <t>NOTDEFINED</t>
+  </si>
+  <si>
+    <t>IFCRELNESTS</t>
+  </si>
+  <si>
+    <t>IFCRELVOIDSELEMENT</t>
+  </si>
+  <si>
+    <t>IFCRELFILLELEMENT</t>
+  </si>
+  <si>
+    <t>Todas as lajes e pilares devem ter a propriedade LoadBearing</t>
+  </si>
+  <si>
+    <t>LoadBearing</t>
   </si>
   <si>
     <t>/Pset_.*Common/</t>
   </si>
   <si>
-    <t>IsExternal</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>LoadBearing</t>
-  </si>
-  <si>
-    <t>/enumeration=TRUE, FALSE/</t>
+    <t>IFCCOLUMN, IFCSLAB</t>
+  </si>
+  <si>
+    <t>IFCELEMENT</t>
+  </si>
+  <si>
+    <t>IFCFURNITURE</t>
+  </si>
+  <si>
+    <t>IFCSTAIR</t>
   </si>
 </sst>
 </file>
@@ -664,7 +784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +887,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -1102,9 +1234,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,7 +1253,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,8 +1304,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,9 +1346,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1573,92 +1703,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239F0DE-95D4-4888-9DF4-42CFE324B097}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-    </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1668,7 +1868,7 @@
           <x14:formula1>
             <xm:f>Support!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C7</xm:sqref>
+          <xm:sqref>C4:C13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1678,212 +1878,350 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52307A5-6B78-4977-A948-3789E427EB48}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
+    </row>
+    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="54"/>
-    </row>
-    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="59" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="46"/>
+        <v>176</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="27"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="28"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="46"/>
+        <v>192</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="28"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="46"/>
+        <v>193</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="28"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="46"/>
+        <v>194</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="27"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="8"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="18" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1911,19 +2249,19 @@
           <x14:formula1>
             <xm:f>Support!$B$3:$B$132</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4419FCA-FF54-4165-AEE3-5F23BCAA01F1}">
-          <x14:formula1>
-            <xm:f>Support!$B$3:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>O4:O7</xm:sqref>
+          <xm:sqref>I5:I13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12FDF058-3226-49FB-BC3A-83AD104ECAB0}">
           <x14:formula1>
-            <xm:f>SPECIFICATIONS!$A$4:$A$205</xm:f>
+            <xm:f>SPECIFICATIONS!$A$4:$A$212</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A7</xm:sqref>
+          <xm:sqref>A4:A13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0F959A5-42CE-4F21-B23A-96CB846DD1F2}">
+          <x14:formula1>
+            <xm:f>Support!$E$2:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>N4:N13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1933,40 +2271,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6466653-3344-42ED-8F52-03DB8ECF3CBD}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>24</v>
+    <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
@@ -1983,186 +2321,356 @@
       <c r="O1" s="69"/>
       <c r="P1" s="69"/>
     </row>
-    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
+    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
       <c r="B2" s="66" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="73" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
       <c r="K2" s="65"/>
-      <c r="L2" s="47" t="s">
-        <v>21</v>
+      <c r="L2" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N2" s="65"/>
       <c r="O2" s="66" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P2" s="67"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="27" t="s">
-        <v>181</v>
+      <c r="H4" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="26"/>
-    </row>
-    <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="8"/>
+      <c r="E11" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="25"/>
+    </row>
+    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="25"/>
+    </row>
+    <row r="18" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2185,31 +2693,31 @@
           <x14:formula1>
             <xm:f>Support!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O7</xm:sqref>
+          <xm:sqref>O4:O13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3881E181-62A1-43AA-B81B-6DAE85168EB4}">
           <x14:formula1>
             <xm:f>Support!$B$2:$B$132</xm:f>
           </x14:formula1>
-          <xm:sqref>I4</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F305484-B106-4BEF-A2DE-A98077936284}">
           <x14:formula1>
             <xm:f>Support!$B$3:$B$132</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2211D6DD-7995-42C7-A105-7F3DAF460026}">
-          <x14:formula1>
-            <xm:f>Support!$B$3:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>P4:P7</xm:sqref>
+          <xm:sqref>I6:I13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DA6F1FB-E4C6-4EBB-A5F8-947E560F29A6}">
           <x14:formula1>
-            <xm:f>SPECIFICATIONS!$A$4:$A$190</xm:f>
+            <xm:f>SPECIFICATIONS!$A$4:$A$197</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A7</xm:sqref>
+          <xm:sqref>A4:A13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2164B7E9-5553-472F-9E90-6D15344EAD9E}">
+          <x14:formula1>
+            <xm:f>Support!$E$2:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>N4:N13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2221,858 +2729,881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6BC952-1F10-4032-8D15-0975CA7BBB4C}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
       <c r="D2" s="18"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="49"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="48"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="48"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="48"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="48"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="48"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="48"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="48"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="48"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="48"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="48"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="48"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="48"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="48"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="48"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="48"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="48"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="48" t="s">
+      <c r="F26" s="46"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="48"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="48"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="48"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="48"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="48" t="s">
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="48"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="48"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="48" t="s">
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="48"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="48" t="s">
+      <c r="F33" s="46"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="48"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="48" t="s">
+      <c r="F34" s="46"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="48"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="48" t="s">
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="48"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="48" t="s">
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="48"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="48" t="s">
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="48"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="48" t="s">
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="48"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="48" t="s">
+      <c r="F39" s="46"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="48"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="48" t="s">
+      <c r="F40" s="46"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="48"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="48" t="s">
+      <c r="F41" s="46"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="48"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="48" t="s">
+      <c r="F42" s="46"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="48"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="48" t="s">
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="48"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="48" t="s">
+      <c r="F44" s="46"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="48"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="48" t="s">
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="48"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="48" t="s">
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="48"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="48" t="s">
+      <c r="F47" s="46"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="48"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="48" t="s">
+      <c r="F48" s="46"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="48"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="48" t="s">
+      <c r="F49" s="46"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="48"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="48" t="s">
+      <c r="F50" s="46"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="48"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="48" t="s">
+      <c r="F51" s="46"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F48" s="48"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="48" t="s">
+      <c r="F52" s="46"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="48"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="48" t="s">
+      <c r="F53" s="46"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="48"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="48" t="s">
+      <c r="F54" s="46"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="48"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="48" t="s">
+      <c r="F55" s="46"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="48"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="48" t="s">
+      <c r="F56" s="46"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="48"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="48" t="s">
+      <c r="F57" s="46"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="48"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="48" t="s">
+      <c r="F58" s="46"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="48"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="48" t="s">
+      <c r="F59" s="46"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="48"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="48" t="s">
+      <c r="F60" s="46"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="48"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="48" t="s">
+      <c r="F61" s="46"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="48"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="48" t="s">
+      <c r="F62" s="46"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="48"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="48" t="s">
+      <c r="F63" s="46"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F60" s="48"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="48" t="s">
+      <c r="F64" s="46"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="48"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="48" t="s">
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="F62" s="48"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="48" t="s">
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F63" s="48"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="48" t="s">
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="48"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="48" t="s">
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="48"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="48" t="s">
+      <c r="F69" s="46"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="48"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="48" t="s">
+      <c r="F70" s="46"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F67" s="48"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="48" t="s">
+      <c r="F71" s="46"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="48"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="48" t="s">
+      <c r="F72" s="46"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="F69" s="48"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="48" t="s">
+      <c r="F73" s="46"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="48"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="48" t="s">
+      <c r="F74" s="46"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F71" s="48"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="48" t="s">
+      <c r="F75" s="46"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="48"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="48" t="s">
+      <c r="F76" s="46"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F73" s="48"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="48" t="s">
+      <c r="F77" s="46"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="48"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="48" t="s">
+      <c r="F78" s="46"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F75" s="48"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="48" t="s">
+      <c r="F79" s="46"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="48"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="48" t="s">
+      <c r="F80" s="46"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="48"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="48" t="s">
+      <c r="F81" s="46"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F78" s="48"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="48" t="s">
+      <c r="F82" s="46"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="F79" s="48"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="48" t="s">
+      <c r="F83" s="46"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="F80" s="48"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="48" t="s">
+      <c r="F84" s="46"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="48"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="48" t="s">
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="F82" s="48"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="48" t="s">
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="F83" s="48"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="48" t="s">
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="F84" s="48"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="48" t="s">
+      <c r="F88" s="46"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="F85" s="48"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="48" t="s">
+      <c r="F89" s="46"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F86" s="48"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="48" t="s">
+      <c r="F90" s="46"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F87" s="48"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="48" t="s">
+      <c r="F91" s="46"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F88" s="48"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="48" t="s">
+      <c r="F92" s="46"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F89" s="48"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="48" t="s">
+      <c r="F93" s="46"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F90" s="48"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="48" t="s">
+      <c r="F94" s="46"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="F91" s="48"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="48" t="s">
+      <c r="F95" s="46"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="F92" s="48"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="48" t="s">
+      <c r="F96" s="46"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="F93" s="48"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="48" t="s">
+      <c r="F97" s="46"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="F94" s="48"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="48" t="s">
+      <c r="F98" s="46"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="F95" s="48"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="48" t="s">
+      <c r="F99" s="46"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="F96" s="48"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="48" t="s">
+      <c r="F100" s="46"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="F97" s="48"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="48" t="s">
+      <c r="F101" s="46"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="F98" s="48"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="48" t="s">
+      <c r="F102" s="46"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="F99" s="48"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="48" t="s">
+      <c r="F103" s="46"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F100" s="48"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="48" t="s">
+      <c r="F104" s="46"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F101" s="48"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="48" t="s">
+      <c r="F105" s="46"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="F102" s="48"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="48" t="s">
+      <c r="F106" s="46"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="F103" s="48"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="48" t="s">
+      <c r="F107" s="46"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F104" s="48"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="48" t="s">
+      <c r="F108" s="46"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="F105" s="48"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="48" t="s">
+      <c r="F109" s="46"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="F106" s="48"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="48" t="s">
+      <c r="F110" s="46"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F107" s="48"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="48" t="s">
+      <c r="F111" s="46"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="F108" s="48"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="48" t="s">
+      <c r="F112" s="46"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="F109" s="48"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="48" t="s">
+      <c r="F113" s="46"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="F110" s="48"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="48" t="s">
+      <c r="F114" s="46"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="F111" s="48"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="48" t="s">
+      <c r="F115" s="46"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="F112" s="48"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="48" t="s">
+      <c r="F116" s="46"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="F113" s="48"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="48" t="s">
+      <c r="F117" s="46"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F114" s="48"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="48" t="s">
+      <c r="F118" s="46"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="F115" s="48"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="48" t="s">
+      <c r="F119" s="46"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="F116" s="48"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="48" t="s">
+      <c r="F120" s="46"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="48"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="48" t="s">
+      <c r="F121" s="46"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F118" s="48"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="48" t="s">
+      <c r="F122" s="46"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="F119" s="48"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="48" t="s">
+      <c r="F123" s="46"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="F120" s="48"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="48" t="s">
+      <c r="F124" s="46"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="F121" s="48"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="48" t="s">
+      <c r="F125" s="46"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="F122" s="48"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="48" t="s">
+      <c r="F126" s="46"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="F123" s="48"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="48" t="s">
+      <c r="F127" s="46"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F124" s="48"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="48" t="s">
+      <c r="F128" s="46"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="F125" s="48"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="48" t="s">
+      <c r="F129" s="46"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="F126" s="48"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="48" t="s">
+      <c r="F130" s="46"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="F127" s="48"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="48" t="s">
+      <c r="F131" s="46"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="50" t="s">
         <v>173</v>
-      </c>
-      <c r="F128" s="48"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="F129" s="48"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F130" s="48"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="F131" s="48"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="48" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/template/IDS_TEMPLATE.xlsx
+++ b/template/IDS_TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/BIM/APRESENTAÇÕES/2023/BIM DAY/IDS WORKSHOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c4rlo\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{0E79F85B-5CE9-4D65-AC8A-40E0967A4564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59556FE4-AB42-49FA-964F-BCE058490047}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636DE61C-7C7C-45B9-93A5-6008199F8177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECIFICATIONS" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="227">
   <si>
     <t>specification description</t>
   </si>
@@ -109,15 +109,6 @@
     <t>SPECIFICATIONS</t>
   </si>
   <si>
-    <t>REQUIRED</t>
-  </si>
-  <si>
-    <t>OPTIONAL</t>
-  </si>
-  <si>
-    <t>PROHIBITED</t>
-  </si>
-  <si>
     <t>PARTS</t>
   </si>
   <si>
@@ -178,396 +169,6 @@
     <t>specification</t>
   </si>
   <si>
-    <t>IfcAbsorbedDoseMeasure</t>
-  </si>
-  <si>
-    <t>IfcAccelerationMeasure</t>
-  </si>
-  <si>
-    <t>IfcAmountOfSubstanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcAngularVelocityMeasure</t>
-  </si>
-  <si>
-    <t>IfcArcIndex</t>
-  </si>
-  <si>
-    <t>IfcAreaDensityMeasure</t>
-  </si>
-  <si>
-    <t>IfcAreaMeasure</t>
-  </si>
-  <si>
-    <t>IfcBinary</t>
-  </si>
-  <si>
-    <t>IfcBoolean</t>
-  </si>
-  <si>
-    <t>IfcBoxAlignment</t>
-  </si>
-  <si>
-    <t>IfcCardinalPointReference</t>
-  </si>
-  <si>
-    <t>IfcComplexNumber</t>
-  </si>
-  <si>
-    <t>IfcCompoundPlaneAngleMeasure</t>
-  </si>
-  <si>
-    <t>IfcContextDependentMeasure</t>
-  </si>
-  <si>
-    <t>IfcCountMeasure</t>
-  </si>
-  <si>
-    <t>IfcCurvatureMeasure</t>
-  </si>
-  <si>
-    <t>IfcDate</t>
-  </si>
-  <si>
-    <t>IfcDateTime</t>
-  </si>
-  <si>
-    <t>IfcDayInMonthNumber</t>
-  </si>
-  <si>
-    <t>IfcDayInWeekNumber</t>
-  </si>
-  <si>
-    <t>IfcDescriptiveMeasure</t>
-  </si>
-  <si>
-    <t>IfcDimensionCount</t>
-  </si>
-  <si>
-    <t>IfcDoseEquivalentMeasure</t>
-  </si>
-  <si>
-    <t>IfcDuration</t>
-  </si>
-  <si>
-    <t>IfcDynamicViscosityMeasure</t>
-  </si>
-  <si>
-    <t>IfcElectricCapacitanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcElectricChargeMeasure</t>
-  </si>
-  <si>
-    <t>IfcElectricConductanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcElectricCurrentMeasure</t>
-  </si>
-  <si>
-    <t>IfcElectricResistanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcElectricVoltageMeasure</t>
-  </si>
-  <si>
-    <t>IfcEnergyMeasure</t>
-  </si>
-  <si>
-    <t>IfcFontStyle</t>
-  </si>
-  <si>
-    <t>IfcFontVariant</t>
-  </si>
-  <si>
-    <t>IfcFontWeight</t>
-  </si>
-  <si>
-    <t>IfcForceMeasure</t>
-  </si>
-  <si>
-    <t>IfcFrequencyMeasure</t>
-  </si>
-  <si>
-    <t>IfcGloballyUniqueId</t>
-  </si>
-  <si>
-    <t>IfcHeatFluxDensityMeasure</t>
-  </si>
-  <si>
-    <t>IfcHeatingValueMeasure</t>
-  </si>
-  <si>
-    <t>IfcIdentifier</t>
-  </si>
-  <si>
-    <t>IfcIlluminanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcInductanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcInteger</t>
-  </si>
-  <si>
-    <t>IfcIntegerCountRateMeasure</t>
-  </si>
-  <si>
-    <t>IfcIonConcentrationMeasure</t>
-  </si>
-  <si>
-    <t>IfcIsothermalMoistureCapacityMeasure</t>
-  </si>
-  <si>
-    <t>IfcKinematicViscosityMeasure</t>
-  </si>
-  <si>
-    <t>IfcLabel</t>
-  </si>
-  <si>
-    <t>IfcLanguageId</t>
-  </si>
-  <si>
-    <t>IfcLengthMeasure</t>
-  </si>
-  <si>
-    <t>IfcLinearForceMeasure</t>
-  </si>
-  <si>
-    <t>IfcLinearMomentMeasure</t>
-  </si>
-  <si>
-    <t>IfcLinearStiffnessMeasure</t>
-  </si>
-  <si>
-    <t>IfcLinearVelocityMeasure</t>
-  </si>
-  <si>
-    <t>IfcLineIndex</t>
-  </si>
-  <si>
-    <t>IfcLogical</t>
-  </si>
-  <si>
-    <t>IfcLuminousFluxMeasure</t>
-  </si>
-  <si>
-    <t>IfcLuminousIntensityDistributionMeasure</t>
-  </si>
-  <si>
-    <t>IfcLuminousIntensityMeasure</t>
-  </si>
-  <si>
-    <t>IfcMagneticFluxDensityMeasure</t>
-  </si>
-  <si>
-    <t>IfcMagneticFluxMeasure</t>
-  </si>
-  <si>
-    <t>IfcMassDensityMeasure</t>
-  </si>
-  <si>
-    <t>IfcMassFlowRateMeasure</t>
-  </si>
-  <si>
-    <t>IfcMassMeasure</t>
-  </si>
-  <si>
-    <t>IfcMassPerLengthMeasure</t>
-  </si>
-  <si>
-    <t>IfcModulusOfElasticityMeasure</t>
-  </si>
-  <si>
-    <t>IfcModulusOfLinearSubgradeReactionMeasure</t>
-  </si>
-  <si>
-    <t>IfcModulusOfRotationalSubgradeReactionMeasure</t>
-  </si>
-  <si>
-    <t>IfcModulusOfSubgradeReactionMeasure</t>
-  </si>
-  <si>
-    <t>IfcMoistureDiffusivityMeasure</t>
-  </si>
-  <si>
-    <t>IfcMolecularWeightMeasure</t>
-  </si>
-  <si>
-    <t>IfcMomentOfInertiaMeasure</t>
-  </si>
-  <si>
-    <t>IfcMonetaryMeasure</t>
-  </si>
-  <si>
-    <t>IfcMonthInYearNumber</t>
-  </si>
-  <si>
-    <t>IfcNonNegativeLengthMeasure</t>
-  </si>
-  <si>
-    <t>IfcNormalisedRatioMeasure</t>
-  </si>
-  <si>
-    <t>IfcNumericMeasure</t>
-  </si>
-  <si>
-    <t>IfcParameterValue</t>
-  </si>
-  <si>
-    <t>IfcPHMeasure</t>
-  </si>
-  <si>
-    <t>IfcPlanarForceMeasure</t>
-  </si>
-  <si>
-    <t>IfcPlaneAngleMeasure</t>
-  </si>
-  <si>
-    <t>IfcPositiveInteger</t>
-  </si>
-  <si>
-    <t>IfcPositiveLengthMeasure</t>
-  </si>
-  <si>
-    <t>IfcPositivePlaneAngleMeasure</t>
-  </si>
-  <si>
-    <t>IfcPositiveRatioMeasure</t>
-  </si>
-  <si>
-    <t>IfcPowerMeasure</t>
-  </si>
-  <si>
-    <t>IfcPresentableText</t>
-  </si>
-  <si>
-    <t>IfcPressureMeasure</t>
-  </si>
-  <si>
-    <t>IfcPropertySetDefinitionSet</t>
-  </si>
-  <si>
-    <t>IfcRadioActivityMeasure</t>
-  </si>
-  <si>
-    <t>IfcRatioMeasure</t>
-  </si>
-  <si>
-    <t>IfcReal</t>
-  </si>
-  <si>
-    <t>IfcRotationalFrequencyMeasure</t>
-  </si>
-  <si>
-    <t>IfcRotationalMassMeasure</t>
-  </si>
-  <si>
-    <t>IfcRotationalStiffnessMeasure</t>
-  </si>
-  <si>
-    <t>IfcSectionalAreaIntegralMeasure</t>
-  </si>
-  <si>
-    <t>IfcSectionModulusMeasure</t>
-  </si>
-  <si>
-    <t>IfcShearModulusMeasure</t>
-  </si>
-  <si>
-    <t>IfcSolidAngleMeasure</t>
-  </si>
-  <si>
-    <t>IfcSoundPowerLevelMeasure</t>
-  </si>
-  <si>
-    <t>IfcSoundPowerMeasure</t>
-  </si>
-  <si>
-    <t>IfcSoundPressureLevelMeasure</t>
-  </si>
-  <si>
-    <t>IfcSoundPressureMeasure</t>
-  </si>
-  <si>
-    <t>IfcSpecificHeatCapacityMeasure</t>
-  </si>
-  <si>
-    <t>IfcSpecularExponent</t>
-  </si>
-  <si>
-    <t>IfcSpecularRoughness</t>
-  </si>
-  <si>
-    <t>IfcTemperatureGradientMeasure</t>
-  </si>
-  <si>
-    <t>IfcTemperatureRateOfChangeMeasure</t>
-  </si>
-  <si>
-    <t>IfcText</t>
-  </si>
-  <si>
-    <t>IfcTextAlignment</t>
-  </si>
-  <si>
-    <t>IfcTextDecoration</t>
-  </si>
-  <si>
-    <t>IfcTextFontName</t>
-  </si>
-  <si>
-    <t>IfcTextTransformation</t>
-  </si>
-  <si>
-    <t>IfcThermalAdmittanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcThermalConductivityMeasure</t>
-  </si>
-  <si>
-    <t>IfcThermalExpansionCoefficientMeasure</t>
-  </si>
-  <si>
-    <t>IfcThermalResistanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcThermalTransmittanceMeasure</t>
-  </si>
-  <si>
-    <t>IfcThermodynamicTemperatureMeasure</t>
-  </si>
-  <si>
-    <t>IfcTime</t>
-  </si>
-  <si>
-    <t>IfcTimeMeasure</t>
-  </si>
-  <si>
-    <t>IfcTimeStamp</t>
-  </si>
-  <si>
-    <t>IfcTorqueMeasure</t>
-  </si>
-  <si>
-    <t>IfcURIReference</t>
-  </si>
-  <si>
-    <t>IfcVaporPermeabilityMeasure</t>
-  </si>
-  <si>
-    <t>IfcVolumeMeasure</t>
-  </si>
-  <si>
-    <t>IfcVolumetricFlowRateMeasure</t>
-  </si>
-  <si>
-    <t>IfcWarpingConstantMeasure</t>
-  </si>
-  <si>
-    <t>IfcWarpingMomentMeasure</t>
-  </si>
-  <si>
     <t>IsExternal</t>
   </si>
   <si>
@@ -719,6 +320,411 @@
   </si>
   <si>
     <t>IFCSTAIR</t>
+  </si>
+  <si>
+    <t>cardinality</t>
+  </si>
+  <si>
+    <t>IFCABSORBEDDOSEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCACCELERATIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCAMOUNTOFSUBSTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCANGULARVELOCITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCARCINDEX</t>
+  </si>
+  <si>
+    <t>IFCAREADENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCAREAMEASURE</t>
+  </si>
+  <si>
+    <t>IFCBINARY</t>
+  </si>
+  <si>
+    <t>IFCBOOLEAN</t>
+  </si>
+  <si>
+    <t>IFCBOXALIGNMENT</t>
+  </si>
+  <si>
+    <t>IFCCARDINALPOINTREFERENCE</t>
+  </si>
+  <si>
+    <t>IFCCOMPLEXNUMBER</t>
+  </si>
+  <si>
+    <t>IFCCOMPOUNDPLANEANGLEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCCONTEXTDEPENDENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCCOUNTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCCURVATUREMEASURE</t>
+  </si>
+  <si>
+    <t>IFCDATE</t>
+  </si>
+  <si>
+    <t>IFCDATETIME</t>
+  </si>
+  <si>
+    <t>IFCDAYINMONTHNUMBER</t>
+  </si>
+  <si>
+    <t>IFCDAYINWEEKNUMBER</t>
+  </si>
+  <si>
+    <t>IFCDESCRIPTIVEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCDIMENSIONCOUNT</t>
+  </si>
+  <si>
+    <t>IFCDOSEEQUIVALENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCDURATION</t>
+  </si>
+  <si>
+    <t>IFCDYNAMICVISCOSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICCAPACITANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICCHARGEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICCONDUCTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICCURRENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICRESISTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCELECTRICVOLTAGEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCENERGYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCFONTSTYLE</t>
+  </si>
+  <si>
+    <t>IFCFONTVARIANT</t>
+  </si>
+  <si>
+    <t>IFCFONTWEIGHT</t>
+  </si>
+  <si>
+    <t>IFCFORCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCFREQUENCYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCGLOBALLYUNIQUEID</t>
+  </si>
+  <si>
+    <t>IFCHEATFLUXDENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCHEATINGVALUEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCIDENTIFIER</t>
+  </si>
+  <si>
+    <t>IFCILLUMINANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCINDUCTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCINTEGER</t>
+  </si>
+  <si>
+    <t>IFCINTEGERCOUNTRATEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCIONCONCENTRATIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCISOTHERMALMOISTURECAPACITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCKINEMATICVISCOSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLABEL</t>
+  </si>
+  <si>
+    <t>IFCLANGUAGEID</t>
+  </si>
+  <si>
+    <t>IFCLENGTHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEARFORCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEARMOMENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEARSTIFFNESSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEARVELOCITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLINEINDEX</t>
+  </si>
+  <si>
+    <t>IFCLOGICAL</t>
+  </si>
+  <si>
+    <t>IFCLUMINOUSFLUXMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLUMINOUSINTENSITYDISTRIBUTIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCLUMINOUSINTENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMAGNETICFLUXDENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMAGNETICFLUXMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMASSDENSITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMASSFLOWRATEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMASSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMASSPERLENGTHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMODULUSOFELASTICITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMODULUSOFLINEARSUBGRADEREACTIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMODULUSOFROTATIONALSUBGRADEREACTIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMODULUSOFSUBGRADEREACTIONMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMOISTUREDIFFUSIVITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMOLECULARWEIGHTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMOMENTOFINERTIAMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMONETARYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCMONTHINYEARNUMBER</t>
+  </si>
+  <si>
+    <t>IFCNONNEGATIVELENGTHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCNORMALISEDRATIOMEASURE</t>
+  </si>
+  <si>
+    <t>IFCNUMERICMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPARAMETERVALUE</t>
+  </si>
+  <si>
+    <t>IFCPHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPLANARFORCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPLANEANGLEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPOSITIVEINTEGER</t>
+  </si>
+  <si>
+    <t>IFCPOSITIVELENGTHMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPOSITIVEPLANEANGLEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPOSITIVERATIOMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPOWERMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPRESENTABLETEXT</t>
+  </si>
+  <si>
+    <t>IFCPRESSUREMEASURE</t>
+  </si>
+  <si>
+    <t>IFCPROPERTYSETDEFINITIONSET</t>
+  </si>
+  <si>
+    <t>IFCRADIOACTIVITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCRATIOMEASURE</t>
+  </si>
+  <si>
+    <t>IFCREAL</t>
+  </si>
+  <si>
+    <t>IFCROTATIONALFREQUENCYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCROTATIONALMASSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCROTATIONALSTIFFNESSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSECTIONALAREAINTEGRALMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSECTIONMODULUSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSHEARMODULUSMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOLIDANGLEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOUNDPOWERLEVELMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOUNDPOWERMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOUNDPRESSURELEVELMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSOUNDPRESSUREMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSPECIFICHEATCAPACITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCSPECULAREXPONENT</t>
+  </si>
+  <si>
+    <t>IFCSPECULARROUGHNESS</t>
+  </si>
+  <si>
+    <t>IFCTEMPERATUREGRADIENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTEMPERATURERATEOFCHANGEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTEXT</t>
+  </si>
+  <si>
+    <t>IFCTEXTALIGNMENT</t>
+  </si>
+  <si>
+    <t>IFCTEXTDECORATION</t>
+  </si>
+  <si>
+    <t>IFCTEXTFONTNAME</t>
+  </si>
+  <si>
+    <t>IFCTEXTTRANSFORMATION</t>
+  </si>
+  <si>
+    <t>IFCTHERMALADMITTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMALCONDUCTIVITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMALEXPANSIONCOEFFICIENTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMALRESISTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMALTRANSMITTANCEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTHERMODYNAMICTEMPERATUREMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTIME</t>
+  </si>
+  <si>
+    <t>IFCTIMEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCTIMESTAMP</t>
+  </si>
+  <si>
+    <t>IFCTORQUEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCURIREFERENCE</t>
+  </si>
+  <si>
+    <t>IFCVAPORPERMEABILITYMEASURE</t>
+  </si>
+  <si>
+    <t>IFCVOLUMEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCVOLUMETRICFLOWRATEMEASURE</t>
+  </si>
+  <si>
+    <t>IFCWARPINGCONSTANTMEASURE</t>
+  </si>
+  <si>
+    <t>IFCWARPINGMOMENTMEASURE</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>prohibited</t>
   </si>
 </sst>
 </file>
@@ -900,7 +906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1179,12 +1185,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1304,72 +1356,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="25" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,14 +1468,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1447,7 +1509,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1553,7 +1615,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1695,7 +1757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1705,153 +1767,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239F0DE-95D4-4888-9DF4-42CFE324B097}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-    </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
   </sheetData>
@@ -1880,98 +1942,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52307A5-6B78-4977-A948-3789E427EB48}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="55"/>
-    </row>
-    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="56" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="68"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>10</v>
@@ -1992,24 +2052,24 @@
         <v>4</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="26"/>
@@ -2022,15 +2082,15 @@
       <c r="K4" s="28"/>
       <c r="L4" s="23"/>
       <c r="M4" s="29"/>
-      <c r="N4" s="28"/>
+      <c r="N4" s="53"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="26"/>
@@ -2043,15 +2103,15 @@
       <c r="K5" s="28"/>
       <c r="L5" s="23"/>
       <c r="M5" s="29"/>
-      <c r="N5" s="28"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="26"/>
@@ -2064,15 +2124,15 @@
       <c r="K6" s="28"/>
       <c r="L6" s="23"/>
       <c r="M6" s="29"/>
-      <c r="N6" s="28"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="26"/>
@@ -2084,25 +2144,25 @@
       <c r="J7" s="6"/>
       <c r="K7" s="28"/>
       <c r="L7" s="23" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="M7" s="29"/>
-      <c r="N7" s="28"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="26" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="22"/>
@@ -2112,15 +2172,15 @@
       <c r="K8" s="28"/>
       <c r="L8" s="23"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="28"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="26"/>
@@ -2133,15 +2193,15 @@
       <c r="K9" s="28"/>
       <c r="L9" s="23"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="28"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="26"/>
@@ -2154,15 +2214,15 @@
       <c r="K10" s="28"/>
       <c r="L10" s="23"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="28"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="26"/>
@@ -2175,15 +2235,15 @@
       <c r="K11" s="28"/>
       <c r="L11" s="23"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="28"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="26"/>
@@ -2196,15 +2256,15 @@
       <c r="K12" s="28"/>
       <c r="L12" s="23"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="28"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="26"/>
@@ -2217,13 +2277,14 @@
       <c r="K13" s="28"/>
       <c r="L13" s="23"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="18" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="53"/>
+      <c r="O13" s="56"/>
+    </row>
+    <row r="18" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
   </sheetData>
+  <dataConsolidate function="countNums"/>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:O1"/>
@@ -2271,103 +2332,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6466653-3344-42ED-8F52-03DB8ECF3CBD}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="36.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" style="2" customWidth="1"/>
+    <col min="15" max="16" width="15.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="36.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="66" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="63" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66" t="s">
+      <c r="M2" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="67"/>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="37.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>10</v>
@@ -2388,24 +2451,27 @@
         <v>4</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="42"/>
@@ -2414,26 +2480,27 @@
       <c r="F4" s="44"/>
       <c r="G4" s="22"/>
       <c r="H4" s="26" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="K4" s="28"/>
       <c r="L4" s="23"/>
       <c r="M4" s="29"/>
       <c r="N4" s="28"/>
       <c r="O4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="42"/>
@@ -2442,26 +2509,27 @@
       <c r="F5" s="44"/>
       <c r="G5" s="22"/>
       <c r="H5" s="26" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="23"/>
       <c r="M5" s="29"/>
       <c r="N5" s="28"/>
       <c r="O5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="25"/>
-    </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="42"/>
@@ -2470,26 +2538,27 @@
       <c r="F6" s="44"/>
       <c r="G6" s="22"/>
       <c r="H6" s="26" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="23"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="42"/>
@@ -2498,36 +2567,37 @@
       <c r="F7" s="44"/>
       <c r="G7" s="22"/>
       <c r="H7" s="26" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="29"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="25"/>
-    </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="42"/>
       <c r="D8" s="26" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="22"/>
@@ -2539,13 +2609,14 @@
       <c r="M8" s="29"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="25"/>
-    </row>
-    <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="42"/>
@@ -2559,19 +2630,20 @@
       <c r="K9" s="28"/>
       <c r="L9" s="23"/>
       <c r="M9" s="29" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="N9" s="28" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="42"/>
@@ -2579,7 +2651,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="44"/>
       <c r="G10" s="22" t="s">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="7"/>
@@ -2589,21 +2661,22 @@
       <c r="M10" s="29"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="42"/>
       <c r="D11" s="26" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="22"/>
@@ -2615,17 +2688,18 @@
       <c r="M11" s="29"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="25"/>
-    </row>
-    <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="42" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
@@ -2639,13 +2713,14 @@
       <c r="M12" s="29"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="42"/>
@@ -2659,26 +2734,27 @@
       <c r="K13" s="28"/>
       <c r="L13" s="23"/>
       <c r="M13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="N13" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="25"/>
-    </row>
-    <row r="18" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="50"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="18" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D2:E2"/>
@@ -2693,7 +2769,7 @@
           <x14:formula1>
             <xm:f>Support!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O13</xm:sqref>
+          <xm:sqref>O4:P13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3881E181-62A1-43AA-B81B-6DAE85168EB4}">
           <x14:formula1>
@@ -2727,23 +2803,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6BC952-1F10-4032-8D15-0975CA7BBB4C}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2754,991 +2830,943 @@
         <v>8</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="49"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="46"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>44</v>
+        <v>225</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>209</v>
+        <v>27</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>45</v>
+        <v>226</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>210</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
-        <v>46</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="46"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="46"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="46"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="46"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="46"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="46"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="46"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="46"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="46"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="46"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="46"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="46"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="46"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="46"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="46"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="46"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="46"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="46"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="46"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="46"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="46"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="46"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="46"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="46"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="46"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" s="46"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="46"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="46"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="46"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="46"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="46"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="46"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" s="46"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="46"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="46"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="46"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="46"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="46"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" s="46"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="46"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" s="46"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" s="46"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" s="46"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F89" s="46"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" s="46"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" s="46"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" s="46"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" s="46"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" s="46"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="F95" s="46"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" s="46"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F97" s="46"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" s="46"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" s="46"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" s="46"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" s="46"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" s="46"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="F103" s="46"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" s="46"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F105" s="46"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" s="46"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="F107" s="46"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="46"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F109" s="46"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="F110" s="46"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F111" s="46"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" s="46"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="46"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F114" s="46"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="F115" s="46"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="F116" s="46"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F117" s="46"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="F118" s="46"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F119" s="46"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="F120" s="46"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="49" t="s">
+      <c r="F121" s="46"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F122" s="46"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F123" s="46"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F124" s="46"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="F125" s="46"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="F126" s="46"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="46"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="46"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="46"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="46"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="46"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="46"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="46"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="46"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="46"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="46"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="46"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="46"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="46"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="46"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="46"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="46"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="46"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50" s="46"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="46"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="46"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="46"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="46"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="46"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="46"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="46"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" s="46"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="46"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="46"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="46"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="46"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F63" s="46"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="46"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="46"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F70" s="46"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F71" s="46"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="46"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="46"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F74" s="46"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="F75" s="46"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F76" s="46"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F77" s="46"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" s="46"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F79" s="46"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F80" s="46"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="46"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="46"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F83" s="46"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" s="46"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F85" s="46"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F86" s="46"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F87" s="46"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F88" s="46"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89" s="46"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="F90" s="46"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F91" s="46"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F92" s="46"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="F93" s="46"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" s="46"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F95" s="46"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="F96" s="46"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="F97" s="46"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" s="46"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F99" s="46"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F100" s="46"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="F101" s="46"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="F102" s="46"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F103" s="46"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F104" s="46"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F105" s="46"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F106" s="46"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F107" s="46"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F108" s="46"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="F109" s="46"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="F110" s="46"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F111" s="46"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="F112" s="46"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="F113" s="46"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F114" s="46"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F115" s="46"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F116" s="46"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F117" s="46"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="F118" s="46"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F119" s="46"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="F120" s="46"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="F121" s="46"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="F122" s="46"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="F123" s="46"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="F124" s="46"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="F125" s="46"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="F126" s="46"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="50" t="s">
-        <v>168</v>
-      </c>
       <c r="F127" s="46"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="50" t="s">
-        <v>169</v>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" s="51" t="s">
+        <v>218</v>
       </c>
       <c r="F128" s="46"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="50" t="s">
-        <v>170</v>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" s="51" t="s">
+        <v>219</v>
       </c>
       <c r="F129" s="46"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="50" t="s">
-        <v>171</v>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" s="51" t="s">
+        <v>220</v>
       </c>
       <c r="F130" s="46"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="50" t="s">
-        <v>172</v>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" s="51" t="s">
+        <v>221</v>
       </c>
       <c r="F131" s="46"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="50" t="s">
-        <v>173</v>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" s="51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="str">
+        <f t="shared" ref="C151:C164" si="0">UPPER(B133)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcabsorbeddosemeasure.htm" xr:uid="{4C1C162E-79CE-484D-ADAE-717DAD0DC126}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcaccelerationmeasure.htm" xr:uid="{D89FCDF3-5C92-4951-96FD-D6E2FCBBBEEC}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcamountofsubstancemeasure.htm" xr:uid="{9E9C1C48-AF69-42A7-B141-3210B1D97FD9}"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcangularvelocitymeasure.htm" xr:uid="{5D0E1736-8A25-4CD6-B0F7-6EECA8F60647}"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcgeometryresource/lexical/ifcarcindex.htm" xr:uid="{4352FAAA-9836-4B18-8D29-A82D7CD480B4}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcareadensitymeasure.htm" xr:uid="{93CBB5C9-DCD7-484A-932E-2BEBF4CC38EE}"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcareameasure.htm" xr:uid="{514EFB69-A9CF-4567-9DF8-625DB51F6395}"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcbinary.htm" xr:uid="{6D4E0FBE-F25D-4C29-8770-DCC7E13BD666}"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcboolean.htm" xr:uid="{3CFE7947-BA46-40B2-BC76-037D612ABDC3}"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationdefinitionresource/lexical/ifcboxalignment.htm" xr:uid="{46ECE23E-87E5-4D9B-BB7A-C944C4D7061A}"/>
-    <hyperlink ref="B13" r:id="rId11" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmaterialresource/lexical/ifccardinalpointreference.htm" xr:uid="{C835D984-5C46-41B8-AF79-273E53BE4631}"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifccomplexnumber.htm" xr:uid="{A95E0661-9A2B-4BBE-A891-A48C9E22900B}"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifccompoundplaneanglemeasure.htm" xr:uid="{21AB8B11-6A7F-478A-A510-D23122E787C3}"/>
-    <hyperlink ref="B16" r:id="rId14" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifccontextdependentmeasure.htm" xr:uid="{B302CA58-C957-4D44-A5E8-D891E29D1345}"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifccountmeasure.htm" xr:uid="{83775D99-9A1D-4E0E-9B64-19D552C8E60B}"/>
-    <hyperlink ref="B18" r:id="rId16" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifccurvaturemeasure.htm" xr:uid="{58CEE495-E99D-4C4C-9BE9-DD39D14094E9}"/>
-    <hyperlink ref="B19" r:id="rId17" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcdatetimeresource/lexical/ifcdate.htm" xr:uid="{1FEF9206-2BA3-4354-B36D-DF8F4B9C6B27}"/>
-    <hyperlink ref="B20" r:id="rId18" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcdatetimeresource/lexical/ifcdatetime.htm" xr:uid="{F58DA485-5DDC-471A-AE4C-60D5286C0E80}"/>
-    <hyperlink ref="B21" r:id="rId19" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcdatetimeresource/lexical/ifcdayinmonthnumber.htm" xr:uid="{961B75ED-7055-4F37-A069-F9D7B4FE8F3C}"/>
-    <hyperlink ref="B22" r:id="rId20" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcdatetimeresource/lexical/ifcdayinweeknumber.htm" xr:uid="{96F37DDE-74DE-4CD5-AE63-2D785DCCB64A}"/>
-    <hyperlink ref="B23" r:id="rId21" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcdescriptivemeasure.htm" xr:uid="{EC7B3039-B760-4933-A43D-D5663B4F3FCC}"/>
-    <hyperlink ref="B24" r:id="rId22" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcgeometryresource/lexical/ifcdimensioncount.htm" xr:uid="{44C86CD8-DE0C-490C-9EE1-AEC1185BD787}"/>
-    <hyperlink ref="B25" r:id="rId23" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcdoseequivalentmeasure.htm" xr:uid="{57F0303B-1D6A-4966-9F69-4B353EC5A340}"/>
-    <hyperlink ref="B26" r:id="rId24" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcdatetimeresource/lexical/ifcduration.htm" xr:uid="{937DFEA0-FE5B-49ED-9340-8DAD98B77222}"/>
-    <hyperlink ref="B27" r:id="rId25" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcdynamicviscositymeasure.htm" xr:uid="{F8C9EE9F-0E78-460F-8CB8-6A9ABE5A6AFB}"/>
-    <hyperlink ref="B28" r:id="rId26" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcelectriccapacitancemeasure.htm" xr:uid="{4198624C-6BA1-4EC1-864B-1206CE8152CD}"/>
-    <hyperlink ref="B29" r:id="rId27" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcelectricchargemeasure.htm" xr:uid="{075E4446-ADCE-4FDF-8EF5-C5BA0EC81F7D}"/>
-    <hyperlink ref="B30" r:id="rId28" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcelectricconductancemeasure.htm" xr:uid="{49E14DEA-209B-4CD8-A0F0-8F36E5AA9346}"/>
-    <hyperlink ref="B31" r:id="rId29" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcelectriccurrentmeasure.htm" xr:uid="{B9CC3C48-DA54-4D8E-BDA9-47F9F6ADC987}"/>
-    <hyperlink ref="B32" r:id="rId30" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcelectricresistancemeasure.htm" xr:uid="{DF75E6E0-F9D9-4E08-9F85-42C37BA52897}"/>
-    <hyperlink ref="B33" r:id="rId31" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcelectricvoltagemeasure.htm" xr:uid="{4B7EAF7D-7076-4AE1-BD32-875E80A14A8D}"/>
-    <hyperlink ref="B34" r:id="rId32" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcenergymeasure.htm" xr:uid="{20991118-444C-48BC-A8FA-B9C1E121054D}"/>
-    <hyperlink ref="B35" r:id="rId33" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifcfontstyle.htm" xr:uid="{99BB565B-9938-4193-A989-03284D104ADF}"/>
-    <hyperlink ref="B36" r:id="rId34" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifcfontvariant.htm" xr:uid="{B819B68B-6317-4338-99EE-37E05B024ADF}"/>
-    <hyperlink ref="B37" r:id="rId35" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifcfontweight.htm" xr:uid="{59AF96B0-9BFD-4D07-8DD7-93E4EE01E7B2}"/>
-    <hyperlink ref="B38" r:id="rId36" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcforcemeasure.htm" xr:uid="{DA5B97D7-70FC-4E84-95B6-3B63B7252E43}"/>
-    <hyperlink ref="B39" r:id="rId37" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcfrequencymeasure.htm" xr:uid="{31E22635-5CEF-4E2F-823C-CC336059E1C8}"/>
-    <hyperlink ref="B40" r:id="rId38" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcutilityresource/lexical/ifcgloballyuniqueid.htm" xr:uid="{12902325-1C15-41CD-B8AD-D829ED8FC227}"/>
-    <hyperlink ref="B41" r:id="rId39" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcheatfluxdensitymeasure.htm" xr:uid="{9ED29DCD-E2EC-4AFC-A742-CC2C5888B56F}"/>
-    <hyperlink ref="B42" r:id="rId40" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcheatingvaluemeasure.htm" xr:uid="{FFBB6F93-EEAE-4B7F-9F01-57CC94B8621C}"/>
-    <hyperlink ref="B43" r:id="rId41" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcidentifier.htm" xr:uid="{A7167B6F-0CB7-4683-B2B3-6E494975190E}"/>
-    <hyperlink ref="B44" r:id="rId42" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcilluminancemeasure.htm" xr:uid="{1F39C9C6-970F-4D52-8E39-427258BB18CA}"/>
-    <hyperlink ref="B45" r:id="rId43" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcinductancemeasure.htm" xr:uid="{AE09721C-30B2-403C-A4D2-FD1CF69A0806}"/>
-    <hyperlink ref="B46" r:id="rId44" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcinteger.htm" xr:uid="{9C814E48-6454-4B3A-A9FD-77C0C53796D7}"/>
-    <hyperlink ref="B47" r:id="rId45" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcintegercountratemeasure.htm" xr:uid="{3DBA7C37-4324-4BB3-93F1-710DF379083C}"/>
-    <hyperlink ref="B48" r:id="rId46" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcionconcentrationmeasure.htm" xr:uid="{50FA2B31-4EE1-4E0B-9F5C-3C27891F0433}"/>
-    <hyperlink ref="B49" r:id="rId47" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcisothermalmoisturecapacitymeasure.htm" xr:uid="{A78C5E6A-FD03-4691-A767-02B4291D60B5}"/>
-    <hyperlink ref="B50" r:id="rId48" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifckinematicviscositymeasure.htm" xr:uid="{08007C9B-8727-4AB6-B763-6995C5BEDDF8}"/>
-    <hyperlink ref="B51" r:id="rId49" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifclabel.htm" xr:uid="{089A8789-1BCE-4F29-A0D2-A6FA1341EB80}"/>
-    <hyperlink ref="B52" r:id="rId50" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcexternalreferenceresource/lexical/ifclanguageid.htm" xr:uid="{0D969A01-F65B-47A5-9F79-1E0061F95587}"/>
-    <hyperlink ref="B53" r:id="rId51" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifclengthmeasure.htm" xr:uid="{DFE277BE-9102-46B1-B6F7-F04315BCAFFF}"/>
-    <hyperlink ref="B54" r:id="rId52" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifclinearforcemeasure.htm" xr:uid="{70B2BD79-57E7-413A-9A59-D442A8FC9233}"/>
-    <hyperlink ref="B55" r:id="rId53" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifclinearmomentmeasure.htm" xr:uid="{50FF79C4-7DD1-4F1A-A353-6D21E2F2D5DC}"/>
-    <hyperlink ref="B56" r:id="rId54" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifclinearstiffnessmeasure.htm" xr:uid="{46C83F0F-81F2-46BA-8C56-9D6CCC382912}"/>
-    <hyperlink ref="B57" r:id="rId55" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifclinearvelocitymeasure.htm" xr:uid="{63DE1F0E-8B09-458A-9662-5F1D985799EE}"/>
-    <hyperlink ref="B58" r:id="rId56" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcgeometryresource/lexical/ifclineindex.htm" xr:uid="{07E4E607-7704-4D69-9914-16188E8D711E}"/>
-    <hyperlink ref="B59" r:id="rId57" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifclogical.htm" xr:uid="{F020F2B5-ABCB-4502-854B-756700E04E06}"/>
-    <hyperlink ref="B60" r:id="rId58" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcluminousfluxmeasure.htm" xr:uid="{490617E8-94C7-464D-B9B8-02E31EC5889D}"/>
-    <hyperlink ref="B61" r:id="rId59" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcluminousintensitydistributionmeasure.htm" xr:uid="{3DF84340-C5A9-42ED-A131-03CE68DE6D83}"/>
-    <hyperlink ref="B62" r:id="rId60" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcluminousintensitymeasure.htm" xr:uid="{7E30B83B-F4A4-41DC-9C09-30982505DB52}"/>
-    <hyperlink ref="B63" r:id="rId61" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmagneticfluxdensitymeasure.htm" xr:uid="{E6208C4A-188A-40EF-BF8D-A78D4409CC35}"/>
-    <hyperlink ref="B64" r:id="rId62" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmagneticfluxmeasure.htm" xr:uid="{638E5281-49E3-4511-B63D-115E42CC1B6F}"/>
-    <hyperlink ref="B65" r:id="rId63" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmassdensitymeasure.htm" xr:uid="{42A6C9F7-B451-4185-A0A1-B17EF864E7DE}"/>
-    <hyperlink ref="B66" r:id="rId64" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmassflowratemeasure.htm" xr:uid="{10DA95F7-9B6A-4DA9-9D55-BCA689094809}"/>
-    <hyperlink ref="B67" r:id="rId65" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmassmeasure.htm" xr:uid="{1DD6C8F2-D8D3-4C0F-815C-DCD107A648FA}"/>
-    <hyperlink ref="B68" r:id="rId66" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmassperlengthmeasure.htm" xr:uid="{7F056CE5-123D-434D-89B0-F57FDFFA3395}"/>
-    <hyperlink ref="B69" r:id="rId67" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmodulusofelasticitymeasure.htm" xr:uid="{7F2AF929-F8D8-4C52-AE77-2801AE49D050}"/>
-    <hyperlink ref="B70" r:id="rId68" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmodulusoflinearsubgradereactionmeasure.htm" xr:uid="{2A8F42D5-6594-4DB6-AE16-5D743EA926E4}"/>
-    <hyperlink ref="B71" r:id="rId69" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmodulusofrotationalsubgradereactionmeasure.htm" xr:uid="{A5A6D3FD-1FC7-414D-BAE9-CCD7EBC774D4}"/>
-    <hyperlink ref="B72" r:id="rId70" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmodulusofsubgradereactionmeasure.htm" xr:uid="{B6442984-2A0A-4D17-9016-F12D9BB449D6}"/>
-    <hyperlink ref="B73" r:id="rId71" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmoisturediffusivitymeasure.htm" xr:uid="{1243A0B0-5373-43F7-B6EA-898465332875}"/>
-    <hyperlink ref="B74" r:id="rId72" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmolecularweightmeasure.htm" xr:uid="{A0E9DE19-EEFB-4EBE-AD2B-7812C9ED8A80}"/>
-    <hyperlink ref="B75" r:id="rId73" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmomentofinertiameasure.htm" xr:uid="{7499CA4D-F5D3-4B4F-82AD-C7309931DBAA}"/>
-    <hyperlink ref="B76" r:id="rId74" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcmonetarymeasure.htm" xr:uid="{AFF6F5C7-9A9A-4329-855C-95C58E24DA5B}"/>
-    <hyperlink ref="B77" r:id="rId75" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcdatetimeresource/lexical/ifcmonthinyearnumber.htm" xr:uid="{61A524EE-5026-45C2-A03B-9E45511DFE4F}"/>
-    <hyperlink ref="B78" r:id="rId76" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcnonnegativelengthmeasure.htm" xr:uid="{082FB433-E739-4BA6-A0DF-02D6DB52C3C9}"/>
-    <hyperlink ref="B79" r:id="rId77" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcnormalisedratiomeasure.htm" xr:uid="{31119479-CDA1-40C9-9828-E6436A754985}"/>
-    <hyperlink ref="B80" r:id="rId78" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcnumericmeasure.htm" xr:uid="{C02A2D2C-A6B4-40B7-AD90-3DAA2849A777}"/>
-    <hyperlink ref="B81" r:id="rId79" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcparametervalue.htm" xr:uid="{7A784855-038A-4174-9148-BDFCC0D5F9AB}"/>
-    <hyperlink ref="B82" r:id="rId80" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcphmeasure.htm" xr:uid="{D5443C0A-2722-42AE-B9D0-A9A45BC6ABC6}"/>
-    <hyperlink ref="B83" r:id="rId81" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcplanarforcemeasure.htm" xr:uid="{0047D384-C6CF-4AD9-B436-9363465565F3}"/>
-    <hyperlink ref="B84" r:id="rId82" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcplaneanglemeasure.htm" xr:uid="{970CA90B-5099-4DDB-BE20-2FBC27E13FB9}"/>
-    <hyperlink ref="B85" r:id="rId83" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcpositiveinteger.htm" xr:uid="{96364B88-34BA-40FC-A1DF-6E661DDAA06F}"/>
-    <hyperlink ref="B86" r:id="rId84" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcpositivelengthmeasure.htm" xr:uid="{9A2446A6-AEC7-4F4C-9435-F88F89F123B3}"/>
-    <hyperlink ref="B87" r:id="rId85" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcpositiveplaneanglemeasure.htm" xr:uid="{E8A87C3A-44EA-47A6-B6BB-15568F6C7749}"/>
-    <hyperlink ref="B88" r:id="rId86" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcpositiveratiomeasure.htm" xr:uid="{ABC443A7-380D-43BE-AAB3-6D3E99D94ABB}"/>
-    <hyperlink ref="B89" r:id="rId87" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcpowermeasure.htm" xr:uid="{94210209-40D4-4080-BBF3-00CCD49335BF}"/>
-    <hyperlink ref="B90" r:id="rId88" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifcpresentabletext.htm" xr:uid="{C7437565-D052-43BE-8AEE-117B9F1B65F4}"/>
-    <hyperlink ref="B91" r:id="rId89" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcpressuremeasure.htm" xr:uid="{0FAA3AE7-6878-430C-8972-B82324193440}"/>
-    <hyperlink ref="B92" r:id="rId90" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifckernel/lexical/ifcpropertysetdefinitionset.htm" xr:uid="{2CFAA46E-3E36-42DA-BB9B-219E63AE1664}"/>
-    <hyperlink ref="B93" r:id="rId91" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcradioactivitymeasure.htm" xr:uid="{86E8161D-49F4-4176-8C6A-E244F4641F50}"/>
-    <hyperlink ref="B94" r:id="rId92" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcratiomeasure.htm" xr:uid="{C7FDBC13-A3DC-4EBF-88A7-BE6568C6CCB5}"/>
-    <hyperlink ref="B95" r:id="rId93" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcreal.htm" xr:uid="{5CF04890-ABED-4157-A2BA-33D5F78AC7CD}"/>
-    <hyperlink ref="B96" r:id="rId94" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcrotationalfrequencymeasure.htm" xr:uid="{9D423C9F-F05F-4617-BBB9-A5FEF03D61D6}"/>
-    <hyperlink ref="B97" r:id="rId95" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcrotationalmassmeasure.htm" xr:uid="{E6E9F7FE-9C9E-430C-A22F-347B5B4A9A62}"/>
-    <hyperlink ref="B98" r:id="rId96" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcrotationalstiffnessmeasure.htm" xr:uid="{F264DAAB-D137-457F-A1AF-800BC5C84924}"/>
-    <hyperlink ref="B99" r:id="rId97" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcsectionalareaintegralmeasure.htm" xr:uid="{FA59DCB6-9C05-49F2-B289-2C1752D26080}"/>
-    <hyperlink ref="B100" r:id="rId98" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcsectionmodulusmeasure.htm" xr:uid="{09D40971-1826-4520-9D3D-3ECFC431E8F5}"/>
-    <hyperlink ref="B101" r:id="rId99" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcshearmodulusmeasure.htm" xr:uid="{AAC13B85-F793-49E4-B84F-2BBE276A0C30}"/>
-    <hyperlink ref="B102" r:id="rId100" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcsolidanglemeasure.htm" xr:uid="{15594503-15E3-4FD2-B5AA-CC9EFF14C1CF}"/>
-    <hyperlink ref="B103" r:id="rId101" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcsoundpowerlevelmeasure.htm" xr:uid="{A0BC9376-1C3F-4313-943E-0AD1FB56CD32}"/>
-    <hyperlink ref="B104" r:id="rId102" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcsoundpowermeasure.htm" xr:uid="{805DF48D-F2E7-403D-BFCA-23C3D8B2FC05}"/>
-    <hyperlink ref="B105" r:id="rId103" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcsoundpressurelevelmeasure.htm" xr:uid="{43374C87-C48A-4CB0-B08F-C558D8FC00F4}"/>
-    <hyperlink ref="B106" r:id="rId104" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcsoundpressuremeasure.htm" xr:uid="{A4EE0E7E-457C-4924-A639-EA4C7C69AB96}"/>
-    <hyperlink ref="B107" r:id="rId105" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcspecificheatcapacitymeasure.htm" xr:uid="{295B194E-2135-47E6-96FE-880723A08B86}"/>
-    <hyperlink ref="B108" r:id="rId106" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifcspecularexponent.htm" xr:uid="{DEAA56E4-4808-4824-90DF-33556C4EB829}"/>
-    <hyperlink ref="B109" r:id="rId107" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifcspecularroughness.htm" xr:uid="{4DA3C47A-E236-40E2-84ED-C9EB4B24C42C}"/>
-    <hyperlink ref="B110" r:id="rId108" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifctemperaturegradientmeasure.htm" xr:uid="{2B65B11F-48BB-4A8F-BD3F-A7F0D229B2BD}"/>
-    <hyperlink ref="B111" r:id="rId109" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifctemperaturerateofchangemeasure.htm" xr:uid="{BD97624B-7F86-4EB7-87AC-65E2F796C7D8}"/>
-    <hyperlink ref="B112" r:id="rId110" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifctext.htm" xr:uid="{4D1FD7A3-E1A1-4B65-B2B2-E01B6561C5FB}"/>
-    <hyperlink ref="B113" r:id="rId111" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifctextalignment.htm" xr:uid="{61A20D21-DA1C-430A-9E0E-06E3675856CE}"/>
-    <hyperlink ref="B114" r:id="rId112" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifctextdecoration.htm" xr:uid="{9FCF7D0D-F953-4FDC-AEF3-0CE48C895233}"/>
-    <hyperlink ref="B115" r:id="rId113" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifctextfontname.htm" xr:uid="{D143FF47-F3D7-421E-9BE5-1A4358987143}"/>
-    <hyperlink ref="B116" r:id="rId114" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcpresentationappearanceresource/lexical/ifctexttransformation.htm" xr:uid="{EF65CB30-0C3A-4099-A509-7EA1682927F7}"/>
-    <hyperlink ref="B117" r:id="rId115" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcthermaladmittancemeasure.htm" xr:uid="{61062952-3CA7-448D-94F2-E182AA20960F}"/>
-    <hyperlink ref="B118" r:id="rId116" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcthermalconductivitymeasure.htm" xr:uid="{B16A5195-8349-4856-B4A6-3C7853348C69}"/>
-    <hyperlink ref="B119" r:id="rId117" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcthermalexpansioncoefficientmeasure.htm" xr:uid="{4C5F6C7B-8C0B-4957-8D0F-137888F344F4}"/>
-    <hyperlink ref="B120" r:id="rId118" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcthermalresistancemeasure.htm" xr:uid="{327B64D8-5A05-44A6-B283-57D5BA93F890}"/>
-    <hyperlink ref="B121" r:id="rId119" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcthermaltransmittancemeasure.htm" xr:uid="{6A1808F7-B0DD-421D-8CF8-275ABE74F362}"/>
-    <hyperlink ref="B122" r:id="rId120" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcthermodynamictemperaturemeasure.htm" xr:uid="{606A92C2-6F2B-403A-AAD2-AD7C55B3DF04}"/>
-    <hyperlink ref="B123" r:id="rId121" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcdatetimeresource/lexical/ifctime.htm" xr:uid="{FEDE8F2C-9100-4DCD-8E79-D9A0BE185678}"/>
-    <hyperlink ref="B124" r:id="rId122" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifctimemeasure.htm" xr:uid="{16C40F91-2A18-4872-A315-0606D33F78B2}"/>
-    <hyperlink ref="B125" r:id="rId123" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcdatetimeresource/lexical/ifctimestamp.htm" xr:uid="{B7202FC1-BEB9-4131-8329-B7A8BB77B272}"/>
-    <hyperlink ref="B126" r:id="rId124" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifctorquemeasure.htm" xr:uid="{E5E51C85-B047-4712-8AB9-4FA176996C16}"/>
-    <hyperlink ref="B127" r:id="rId125" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcexternalreferenceresource/lexical/ifcurireference.htm" xr:uid="{314C9C09-CCD5-439F-AB52-F2A52191ED04}"/>
-    <hyperlink ref="B128" r:id="rId126" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcvaporpermeabilitymeasure.htm" xr:uid="{81365AC2-4C5A-4BE8-B803-3551B2124E8D}"/>
-    <hyperlink ref="B129" r:id="rId127" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcvolumemeasure.htm" xr:uid="{F0683AA0-3340-4CE0-A9D8-D3B9CCBBC5F6}"/>
-    <hyperlink ref="B130" r:id="rId128" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcvolumetricflowratemeasure.htm" xr:uid="{BB664EAC-A2C9-4BF4-8994-F38A10BE64F9}"/>
-    <hyperlink ref="B131" r:id="rId129" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcwarpingconstantmeasure.htm" xr:uid="{6A450E12-415C-4A6F-8AE0-C42AE07AD892}"/>
-    <hyperlink ref="B132" r:id="rId130" display="https://standards.buildingsmart.org/IFC/RELEASE/IFC4/ADD2_TC1/HTML/schema/ifcmeasureresource/lexical/ifcwarpingmomentmeasure.htm" xr:uid="{E29B7B09-D94F-4F1D-8156-D9789A243CBE}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>